--- a/results/cross_table_per_100_million_tokens_rounded.xlsx
+++ b/results/cross_table_per_100_million_tokens_rounded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Studie informatiekunde\master\master project\project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71FCDB8-A4E5-4C7C-BFAB-E3E2DB989F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D1CD1-DAFC-43E8-BBE3-29ADD89A7292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A7434B7-1035-4331-815A-FB1FAF449086}"/>
   </bookViews>
@@ -303,9 +303,6 @@
     <t>in het achterhoofd houden</t>
   </si>
   <si>
-    <t xml:space="preserve">in het honderd </t>
-  </si>
-  <si>
     <t>in mijn keel kloppen</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t>Idiom</t>
+  </si>
+  <si>
+    <t>in het honderd lopen</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D917A72F-1D3F-49F3-B0E1-76D145A82970}">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5429,13 +5429,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5444,22 +5444,22 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G71">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="K71">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -5468,22 +5468,22 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S71">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123">
         <v>715</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126">
         <v>715</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129">
         <v>715</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158">
         <v>715</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -11505,7 +11505,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B175">
         <v>2862</v>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -12001,7 +12001,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183">
         <v>0</v>

--- a/results/cross_table_per_100_million_tokens_rounded.xlsx
+++ b/results/cross_table_per_100_million_tokens_rounded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Studie informatiekunde\master\master project\project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989D1CD1-DAFC-43E8-BBE3-29ADD89A7292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91787CA3-94CD-4D16-AE7D-ED1A817F8059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A7434B7-1035-4331-815A-FB1FAF449086}"/>
   </bookViews>
@@ -678,14 +678,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -732,10 +739,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B00A6EE-87B6-420A-9ABD-09E9B68A31D7}" name="cross_table_per_100_million_tokens_rounded" displayName="cross_table_per_100_million_tokens_rounded" ref="A1:T183" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T183" xr:uid="{F682CB98-69A8-4AB8-B4BE-50EB277CD528}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B00A6EE-87B6-420A-9ABD-09E9B68A31D7}" name="cross_table_per_100_million_tokens_rounded" displayName="cross_table_per_100_million_tokens_rounded" ref="A1:T183" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{0C71C6BA-BBEF-44FE-8A50-449FC1D440D4}" uniqueName="1" name="Idiom" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0C71C6BA-BBEF-44FE-8A50-449FC1D440D4}" uniqueName="1" name="Idiom" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E414B741-7AA0-48AF-9756-C0E520323AB2}" uniqueName="2" name="blogs" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D71FDD29-9508-4F63-8C38-86866763BA82}" uniqueName="3" name="books" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{21550152-4A6F-44E6-8BA7-CE6C94A918EB}" uniqueName="4" name="brochures" queryTableFieldId="4"/>
@@ -1059,93 +1065,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D917A72F-1D3F-49F3-B0E1-76D145A82970}">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
